--- a/dpp_api/data/Micropower/parameter_metadata_Micropower.xlsx
+++ b/dpp_api/data/Micropower/parameter_metadata_Micropower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berenicegudino/Desktop/Code/dpp/dpp_app/data/Micropower/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beren\Code\dpp_smartpass\dpp_app\data\Micropower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D2AB88-3472-A947-ADC3-0B013CC6DFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFC8819-CD4D-460B-9590-25406CADCB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="-14600" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{F5499085-62E6-4B04-A4E2-EEF974C52419}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5499085-62E6-4B04-A4E2-EEF974C52419}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter_metadata" sheetId="4" r:id="rId1"/>
@@ -1958,18 +1958,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91110A29-C29E-1746-BC3B-9F1F909FD312}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>parameter_metadata_original!A1</f>
         <v>category</v>
@@ -2015,7 +2016,7 @@
         <v>data model definition string</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>parameter_metadata_original!A3</f>
         <v>1. General product and manufacturer information</v>
@@ -2056,7 +2057,7 @@
         <v>{"Product ID": {"@type":"gs1:gtin","value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>parameter_metadata_original!A2</f>
         <v>1. General product and manufacturer information</v>
@@ -2093,7 +2094,7 @@
         <v>{"DPP Created Timestamp" : {"value":{"@value":"", "@type":"xsd:dateTime"}}}</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>parameter_metadata_original!A22</f>
         <v>1. General battery and manufacturer information</v>
@@ -2134,7 +2135,7 @@
         <v>{"Battery Category" : {"@type":"gs1:subBrandName", "value":{"@value":"", "@type":"rdf:langString"}}}</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>parameter_metadata_original!A21</f>
         <v>1. General battery and manufacturer information</v>
@@ -2175,7 +2176,7 @@
         <v>{"Manufacturer identifier and information" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>parameter_metadata_original!A4</f>
         <v>1. General product and manufacturer information</v>
@@ -2212,7 +2213,7 @@
         <v>{"Manufacturing date": {"@type":"gs1:productionDateTime", "value": {"@value":"", "@type":"xsd:dateTime"}}}</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>parameter_metadata_original!A5</f>
         <v>1. General product and manufacturer information</v>
@@ -2253,7 +2254,7 @@
         <v>{"Manufactured by": {"@type":"gs1:organizationName", "value": {"@value": "", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>parameter_metadata_original!A6</f>
         <v>1. General product and manufacturer information</v>
@@ -2294,7 +2295,7 @@
         <v>{"Manufacturing place" : {"@type":"gs1:address", "City": {"@type":"gs1:addressLocality", "value":{"@value": "", "@type":"xsd:string"}} , "Address":{"@type":"gs1:streetAddress",  "value":{"@value": "", "@type":"xsd:string"}}}}</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>parameter_metadata_original!A7</f>
         <v>1. General product and manufacturer information</v>
@@ -2331,7 +2332,7 @@
         <v>{"Product category" : {"@type":"gs1:brandName", "value":{"@value":"", "@type":"rdf:langString"}}}</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>parameter_metadata_original!A8</f>
         <v>1. General product and manufacturer information</v>
@@ -2372,7 +2373,7 @@
         <v>{"Economic operator" : {"@type":"schema:legalName",  "value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>parameter_metadata_original!A33</f>
         <v>2. Compliance, labels and certifications</v>
@@ -2413,7 +2414,7 @@
         <v>{"Results of test reports proving compliance with this Regulation" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>parameter_metadata_original!A14</f>
         <v>3. Carbon footprint</v>
@@ -2454,7 +2455,7 @@
         <v>{"Dimensions":{"Height" : {"@type":"gs1:outOfPackageHeight", "value":{"@value":"", "@type":"xsd:float", "unitCode": "MMT"}}, "Width" : {"@type":"gs1:inPackageWidth", "value":{"@value":"", "@type":"xsd:float", "unitCode": "MMT"}}, "Depth" : {"@type":"gs1:inPackageDepth", "value":{"@value":"", "@type":"xsd:float", "unitCode": "MMT"}}}}</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>parameter_metadata_original!A34</f>
         <v>3. Carbon footprint</v>
@@ -2495,7 +2496,7 @@
         <v>{"Battery carbon footprint" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>parameter_metadata_original!A40</f>
         <v>4. Supply Chain Due Diligence</v>
@@ -2536,7 +2537,7 @@
         <v>{"Information of the due diligence report" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>parameter_metadata_original!A41</f>
         <v>5. Battery Material and composition</v>
@@ -2577,7 +2578,7 @@
         <v>{"Battery chemistry" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>parameter_metadata_original!A43</f>
         <v>5. Battery Material and composition</v>
@@ -2618,7 +2619,7 @@
         <v>{"Hazardous substances, other than Hg, Cd, Pb" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>parameter_metadata_original!A17</f>
         <v>5. Battery Material and composition</v>
@@ -2655,7 +2656,7 @@
         <v>{"Recycled content [% of original weight]" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>parameter_metadata_original!A15</f>
         <v>6. Circularity and resource efficiency</v>
@@ -2692,7 +2693,7 @@
         <v>{"Carbon footprint (Cradle to gate)" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>parameter_metadata_original!A18</f>
         <v>6. Circularity and resource efficiency</v>
@@ -2733,7 +2734,7 @@
         <v>{"Hazardous substances content" : {"@type":"gs1:ReferencedFileTypeCode-HAZARDOUS_SUBSTANCES_DATA", "value": {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}}</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>parameter_metadata_original!A16</f>
         <v>6. Circularity and resource efficiency</v>
@@ -2770,7 +2771,7 @@
         <v>{"Recycled content [kg]" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>parameter_metadata_original!A19</f>
         <v>6. Circularity and resource efficiency</v>
@@ -2807,7 +2808,7 @@
         <v>{"The share of renewable content" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>parameter_metadata_original!A20</f>
         <v>6. Circularity and resource efficiency</v>
@@ -2848,7 +2849,7 @@
         <v>{"Contact details for spare parts" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>parameter_metadata_original!A59</f>
         <v>6. Circularity and resource efficiency</v>
@@ -2889,7 +2890,7 @@
         <v>{"Part numbers for spare parts components" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>parameter_metadata_original!A61</f>
         <v>6. Circularity and resource efficiency</v>
@@ -2930,7 +2931,7 @@
         <v>{"Dismantling information " : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>parameter_metadata_original!A62</f>
         <v>6. Circularity and resource efficiency</v>
@@ -2971,7 +2972,7 @@
         <v>{"Safety measures/instructions" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>parameter_metadata_original!A63</f>
         <v>7. Performance</v>
@@ -3012,7 +3013,7 @@
         <v>{"Rated Capacity" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float", "unitCode":"KWH"}}}</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>parameter_metadata_original!A64</f>
         <v>7. Performance</v>
@@ -3053,7 +3054,7 @@
         <v>{"Certified Useable Battery Energy BoL" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float", "unitCode":"KWH"}}}</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>parameter_metadata_original!A65</f>
         <v>7. Performance</v>
@@ -3100,7 +3101,7 @@
         <v>{"Min, Nominal and Max voltage":{"Min" : {"@type":"gs1:Voltage", "value":{"@value":"", "@type":"xsd:float", "unitCode": "VLT"}}, "Nominal" : {"@type":"gs1:Voltage", "value":{"@value":"", "@type":"xsd:float", "unitCode": "VLT"}}, "Max" : {"@type":"gs1:Voltage", "value":{"@value":"", "@type":"xsd:float", "unitCode": "VLT"}}}}</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>parameter_metadata_original!A66</f>
         <v>7. Performance</v>
@@ -3141,7 +3142,7 @@
         <v>{"Original power capability and limits" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float", "unitCode":"KWH"}}}</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>parameter_metadata_original!A68</f>
         <v>7. Performance</v>
@@ -3182,7 +3183,7 @@
         <v>{"Ratio between nominal battery power and battery energy" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>parameter_metadata_original!A69</f>
         <v>7. Performance</v>
@@ -3223,7 +3224,7 @@
         <v>{"Initial self-discharging rate" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>parameter_metadata_original!A70</f>
         <v>7. Performance</v>
@@ -3264,7 +3265,7 @@
         <v>{"Initial internal resistance on cell level" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float", "unitCode":"E45"}}}</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>parameter_metadata_original!A73</f>
         <v>7. Performance</v>
@@ -3305,7 +3306,7 @@
         <v>{"Intial round trip energy efficiency" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>parameter_metadata_original!A87</f>
         <v>8. Durability</v>
@@ -3346,7 +3347,7 @@
         <v>{"Expected lifetime: Number of charge-discharge cycles" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>parameter_metadata_original!A89</f>
         <v>8. Durability</v>
@@ -3387,7 +3388,7 @@
         <v>{"C-rate of relevant cycle-life test" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>parameter_metadata_original!A90</f>
         <v>8. Durability</v>
@@ -3428,7 +3429,7 @@
         <v>{"Warranty period of the battery" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>parameter_metadata_original!A94</f>
         <v>8. Durability</v>
@@ -3469,7 +3470,7 @@
         <v>{"Putting into service" : {"value":{"@value":"", "@type":"xsd:dateTime"}}}</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>parameter_metadata_original!A9</f>
         <v>9. Product Updates</v>
@@ -3510,7 +3511,7 @@
         <v>{"Update ID" : { "value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>parameter_metadata_original!A10</f>
         <v>9. Product Updates</v>
@@ -3547,7 +3548,7 @@
         <v>{"DPP Update Timestamp" : {"@type":"schema:startTime", "value":{"@type":"schema:DateTime", "value": {"@value":"", "@type":"xsd:dateTime"}}}}</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>parameter_metadata_original!A11</f>
         <v>9. Product Updates</v>
@@ -3584,7 +3585,7 @@
         <v>{"DPP Update Reason" :  {"@type":"schema:description", "value":{"@type":"schema:Text", "value": {"@value":"", "@type":"xsd:string"}}}}</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>parameter_metadata_original!A12</f>
         <v>9. Product Updates</v>
@@ -3625,7 +3626,7 @@
         <v>{"DPP Update Responsible" :  {"@type":"schema:Organization", "value":{"@type":"schema:legalName", "value": {"@value":"", "@type":"xsd:string"}}}}</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>parameter_metadata_original!A23</f>
         <v>9. Product Updates</v>
@@ -3666,7 +3667,7 @@
         <v>{"Battery status" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>parameter_metadata_original!A13</f>
         <v>9. Product Updates</v>
@@ -3703,7 +3704,7 @@
         <v>{"Original weight" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>parameter_metadata_original!A76</f>
         <v>9. Product Updates</v>
@@ -3744,7 +3745,7 @@
         <v>{"Remaining power capability" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float", "unitCode":"KWH"}}}</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>parameter_metadata_original!A79</f>
         <v>9. Product Updates</v>
@@ -3785,7 +3786,7 @@
         <v>{"State of Charge (SOC)" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>parameter_metadata_original!A81</f>
         <v>9. Product Updates</v>
@@ -3826,7 +3827,7 @@
         <v>{"Remaining capacity (kWh) (useable, available)" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float", "unitCode":"KWT"}}}</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>parameter_metadata_original!A85</f>
         <v>9. Product Updates</v>
@@ -3867,7 +3868,7 @@
         <v>{"Current Internal resistance (pack)" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>parameter_metadata_original!A86</f>
         <v>9. Product Updates</v>
@@ -3908,7 +3909,7 @@
         <v>{"Internal resistance increase (pack)" : {"@type":"gs1:Power", "value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>parameter_metadata_original!A98</f>
         <v>9. Product Updates</v>
@@ -3949,7 +3950,7 @@
         <v>{"Current number of (full) charging and discharging cycles" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>parameter_metadata_original!A108</f>
         <v>9. Product Updates</v>
@@ -3990,7 +3991,7 @@
         <v>{"Expected remaining battery lifetime expressed in cycles" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>parameter_metadata_original!A109</f>
         <v>9. Product Updates</v>
@@ -4031,7 +4032,7 @@
         <v>{"Negative events" : {"@type":"schema:Text", "value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>parameter_metadata_original!A110</f>
         <v>9. Product Updates</v>
@@ -4072,7 +4073,7 @@
         <v>{"Service  log" : {"@type":"schema:Text", "value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>parameter_metadata_original!A111</f>
         <v>9. Product Updates</v>
@@ -4134,22 +4135,22 @@
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="96.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="96.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4184,7 +4185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -4260,7 +4261,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>256</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>256</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>256</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -4557,7 +4558,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -4580,7 +4581,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>256</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>256</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>256</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -4933,7 +4934,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -5089,7 +5090,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -5257,7 +5258,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -5352,7 +5353,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -5557,7 +5558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -5607,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -5638,7 +5639,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -5688,7 +5689,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -5707,7 +5708,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -5727,7 +5728,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -5778,7 +5779,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -5810,7 +5811,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -5842,7 +5843,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -5874,7 +5875,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -5941,7 +5942,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -5997,7 +5998,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>50</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -6181,7 +6182,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>256</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>256</v>
       </c>
@@ -6269,7 +6270,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>256</v>
       </c>
@@ -6295,7 +6296,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>256</v>
       </c>
@@ -6321,7 +6322,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>256</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>256</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>256</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>256</v>
       </c>
@@ -6437,7 +6438,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>256</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>256</v>
       </c>
@@ -6497,7 +6498,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -6529,7 +6530,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>256</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>51</v>
       </c>
@@ -6593,7 +6594,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>51</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>51</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>51</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>51</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>51</v>
       </c>
@@ -6773,7 +6774,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -6805,7 +6806,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -6830,7 +6831,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>51</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -6885,7 +6886,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>256</v>
       </c>
@@ -6917,7 +6918,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>256</v>
       </c>
@@ -6947,7 +6948,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>256</v>
       </c>
@@ -6977,7 +6978,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>256</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>256</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>256</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>256</v>
       </c>
@@ -7081,7 +7082,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>256</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>256</v>
       </c>
@@ -7137,7 +7138,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>256</v>
       </c>
@@ -7167,7 +7168,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>256</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>256</v>
       </c>
@@ -7231,7 +7232,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>256</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>256</v>
       </c>
@@ -7327,18 +7328,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59132617-946A-49E3-AD77-F1AA979B4F46}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7349,7 +7350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>parameter_metadata_original!A3</f>
         <v>1. General product and manufacturer information</v>
@@ -7361,7 +7362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>parameter_metadata_original!A22</f>
         <v>1. General battery and manufacturer information</v>
@@ -7373,7 +7374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>parameter_metadata_original!A14</f>
         <v>3. Carbon footprint</v>
@@ -7385,7 +7386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>parameter_metadata_original!A33</f>
         <v>2. Compliance, labels and certifications</v>
@@ -7397,7 +7398,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>parameter_metadata_original!A15</f>
         <v>6. Circularity and resource efficiency</v>
@@ -7409,7 +7410,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>parameter_metadata_original!A40</f>
         <v>4. Supply Chain Due Diligence</v>
@@ -7421,7 +7422,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>parameter_metadata_original!A41</f>
         <v>5. Battery Material and composition</v>
@@ -7433,7 +7434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>parameter_metadata_original!A63</f>
         <v>7. Performance</v>
@@ -7445,7 +7446,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>parameter_metadata_original!A87</f>
         <v>8. Durability</v>
@@ -7457,7 +7458,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -7481,13 +7482,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>parameter_metadata_original!A3</f>
         <v>1. General product and manufacturer information</v>
@@ -7504,7 +7505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>parameter_metadata_original!A22</f>
         <v>1. General battery and manufacturer information</v>
@@ -7513,7 +7514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>parameter_metadata_original!A14</f>
         <v>3. Carbon footprint</v>
@@ -7522,7 +7523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>parameter_metadata_original!A33</f>
         <v>2. Compliance, labels and certifications</v>
@@ -7531,7 +7532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>parameter_metadata_original!A15</f>
         <v>6. Circularity and resource efficiency</v>
@@ -7540,7 +7541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>parameter_metadata_original!A40</f>
         <v>4. Supply Chain Due Diligence</v>
@@ -7549,7 +7550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>parameter_metadata_original!A41</f>
         <v>5. Battery Material and composition</v>
@@ -7558,7 +7559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>parameter_metadata_original!A63</f>
         <v>7. Performance</v>
@@ -7567,7 +7568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>parameter_metadata_original!A87</f>
         <v>8. Durability</v>
@@ -7576,7 +7577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>256</v>
       </c>
